--- a/params_BC_highplant.xlsx
+++ b/params_BC_highplant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E8829-91FA-469A-9C31-F5E6BB3718FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC704434-CCC6-45AC-AA2B-B429D3B4B73F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15450" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,8 +967,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1117,7 +1117,7 @@
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C11" t="s">
@@ -1198,7 +1198,7 @@
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>10000</v>
       </c>
       <c r="C17" t="s">
@@ -1834,8 +1834,8 @@
       <c r="A62" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.04</v>
+      <c r="B62" s="11">
+        <v>1.4243299999999999E-3</v>
       </c>
       <c r="C62" t="s">
         <v>117</v>
@@ -1848,8 +1848,8 @@
       <c r="A63" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="1">
-        <v>0.4</v>
+      <c r="B63" s="11">
+        <v>5.9642390000000003E-2</v>
       </c>
       <c r="C63" t="s">
         <v>116</v>

--- a/params_BC_highplant.xlsx
+++ b/params_BC_highplant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC704434-CCC6-45AC-AA2B-B429D3B4B73F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6714752-B401-459F-AEA2-E8E30D52380F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15450" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
   <si>
     <t>val</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Volume of root m³/m² ground area</t>
   </si>
   <si>
-    <t>Trapp (2000) for 1 m² ground area</t>
-  </si>
-  <si>
     <t>VFrootbody</t>
   </si>
   <si>
@@ -534,6 +531,21 @@
   </si>
   <si>
     <t>Is the flow vertical? 1 = true or 0</t>
+  </si>
+  <si>
+    <t>VegHL</t>
+  </si>
+  <si>
+    <t>Half life in vegetation</t>
+  </si>
+  <si>
+    <t>k_fs</t>
+  </si>
+  <si>
+    <t>Turnover rate for volume in "apparent free space" at equilibrium with soil solution. Can range between 8 - 25%, default is 20%</t>
+  </si>
+  <si>
+    <t>Trapp (2000) for 1 m² ground area 0.00182</t>
   </si>
 </sst>
 </file>
@@ -968,7 +980,7 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,7 +1026,7 @@
         <v>1515000</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1025,7 +1037,7 @@
         <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1036,7 +1048,7 @@
         <v>80000</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1047,10 +1059,10 @@
         <v>0.69</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1061,10 +1073,10 @@
         <v>0.63343000000000005</v>
       </c>
       <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
         <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
       </c>
       <c r="F7" s="1">
         <v>8.0580902099999996</v>
@@ -1081,7 +1093,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -1110,18 +1122,18 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1135,7 +1147,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1163,7 +1175,7 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1205,32 +1217,33 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.82E-3</v>
+        <f>0.00182*100</f>
+        <v>0.182</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0.72</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1238,13 +1251,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1252,13 +1265,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21">
         <v>5.67E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1266,13 +1279,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>0.2</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1280,13 +1293,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>0.05</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1294,314 +1307,314 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>0.1</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1">
         <v>1E-3</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
         <v>39</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>0.2475</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>0.19</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
         <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>8.0499999999999992E-6</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1">
         <v>0.14583333333333334</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1">
         <v>200000</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1">
         <v>1.5</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1">
         <v>0.4</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3">
         <v>0.14399999999999999</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1">
         <v>3.52</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1">
         <v>0.03</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1">
         <v>4.6000000000000002E-8</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1">
         <v>1.0999999999999999E-8</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>0.2475</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1617,13 +1630,13 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>96</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1639,13 +1652,13 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1661,68 +1674,68 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="3">
         <v>0.38597441999999998</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1">
         <v>360</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="11">
         <v>8.8584400000000004E-3</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="3">
         <v>0.23394123999999999</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
@@ -1731,184 +1744,184 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55">
         <v>0.15</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56">
         <v>1.3</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57">
         <v>0.5</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58">
         <v>0.8</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B59">
         <v>0.21</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60">
         <v>0.05</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61">
         <v>0.21</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="11">
         <v>1.4243299999999999E-3</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="11">
         <v>5.9642390000000003E-2</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="1">
         <v>1E-3</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65">
         <v>0.1</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B66">
         <v>0.25</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="3">
         <v>15.058877799999999</v>
       </c>
       <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" t="s">
         <v>148</v>
       </c>
-      <c r="D67" t="s">
-        <v>149</v>
-      </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H67">
         <v>18.254071249999999</v>
@@ -1916,24 +1929,24 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69">
         <v>0.6</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="6"/>
@@ -1942,13 +1955,13 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70">
         <v>0.8</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="8"/>
@@ -1957,13 +1970,13 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="9"/>
@@ -1971,12 +1984,34 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12">
+      <c r="A72" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73">
+        <v>0.2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
